--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H2">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I2">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J2">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N2">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O2">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P2">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q2">
-        <v>19.42278694961511</v>
+        <v>11.17551877297233</v>
       </c>
       <c r="R2">
-        <v>174.805082546536</v>
+        <v>100.579668956751</v>
       </c>
       <c r="S2">
-        <v>0.09919250326247546</v>
+        <v>0.05122838017231555</v>
       </c>
       <c r="T2">
-        <v>0.09919250326247546</v>
+        <v>0.05122838017231557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H3">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I3">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J3">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q3">
-        <v>2.142008023029334</v>
+        <v>3.349398031948</v>
       </c>
       <c r="R3">
-        <v>19.278072207264</v>
+        <v>30.144582287532</v>
       </c>
       <c r="S3">
-        <v>0.01093927140135758</v>
+        <v>0.01535358127123451</v>
       </c>
       <c r="T3">
-        <v>0.01093927140135758</v>
+        <v>0.01535358127123451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H4">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I4">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J4">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N4">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q4">
-        <v>27.81571666601867</v>
+        <v>64.831013612408</v>
       </c>
       <c r="R4">
-        <v>250.341449994168</v>
+        <v>583.479122511672</v>
       </c>
       <c r="S4">
-        <v>0.1420553380572825</v>
+        <v>0.297184218447666</v>
       </c>
       <c r="T4">
-        <v>0.1420553380572825</v>
+        <v>0.2971842184476661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>338.356186</v>
       </c>
       <c r="I5">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J5">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N5">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O5">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P5">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q5">
-        <v>44.47876281115711</v>
+        <v>16.36677745353311</v>
       </c>
       <c r="R5">
-        <v>400.308865300414</v>
+        <v>147.300997081798</v>
       </c>
       <c r="S5">
-        <v>0.2271537980981665</v>
+        <v>0.07502501804328116</v>
       </c>
       <c r="T5">
-        <v>0.2271537980981665</v>
+        <v>0.07502501804328121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>338.356186</v>
       </c>
       <c r="I6">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J6">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q6">
         <v>4.905262413837334</v>
@@ -827,10 +827,10 @@
         <v>44.147361724536</v>
       </c>
       <c r="S6">
-        <v>0.02505125856809647</v>
+        <v>0.02248563604839208</v>
       </c>
       <c r="T6">
-        <v>0.02505125856809647</v>
+        <v>0.0224856360483921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>338.356186</v>
       </c>
       <c r="I7">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J7">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N7">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q7">
-        <v>63.69882279096467</v>
+        <v>94.94635492425067</v>
       </c>
       <c r="R7">
-        <v>573.289405118682</v>
+        <v>854.517194318256</v>
       </c>
       <c r="S7">
-        <v>0.3253109712781881</v>
+        <v>0.4352324097739815</v>
       </c>
       <c r="T7">
-        <v>0.3253109712781881</v>
+        <v>0.4352324097739817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H8">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I8">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J8">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N8">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O8">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P8">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q8">
-        <v>0.02655676034211112</v>
+        <v>0.01170100403966667</v>
       </c>
       <c r="R8">
-        <v>0.239010843079</v>
+        <v>0.105309036357</v>
       </c>
       <c r="S8">
-        <v>0.0001356258267008297</v>
+        <v>5.363719533016509E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001356258267008297</v>
+        <v>5.363719533016512E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H9">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I9">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J9">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q9">
-        <v>0.002928765777333334</v>
+        <v>0.003506890436</v>
       </c>
       <c r="R9">
-        <v>0.026358891996</v>
+        <v>0.031562013924</v>
       </c>
       <c r="S9">
-        <v>1.495725663246901E-05</v>
+        <v>1.607552366271795E-05</v>
       </c>
       <c r="T9">
-        <v>1.495725663246901E-05</v>
+        <v>1.607552366271796E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H10">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I10">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J10">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N10">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q10">
-        <v>0.03803240611966667</v>
+        <v>0.067879439656</v>
       </c>
       <c r="R10">
-        <v>0.342291655077</v>
+        <v>0.610914956904</v>
       </c>
       <c r="S10">
-        <v>0.0001942321448457007</v>
+        <v>0.0003111581494535358</v>
       </c>
       <c r="T10">
-        <v>0.0001942321448457007</v>
+        <v>0.0003111581494535359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H11">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I11">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J11">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N11">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O11">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P11">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q11">
-        <v>12.80541097490478</v>
+        <v>3.097739759461444</v>
       </c>
       <c r="R11">
-        <v>115.248698774143</v>
+        <v>27.879657835153</v>
       </c>
       <c r="S11">
-        <v>0.06539745162219122</v>
+        <v>0.0141999842062259</v>
       </c>
       <c r="T11">
-        <v>0.06539745162219122</v>
+        <v>0.01419998420622591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H12">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I12">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J12">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q12">
-        <v>1.412222309681333</v>
+        <v>0.9284189543773335</v>
       </c>
       <c r="R12">
-        <v>12.710000787132</v>
+        <v>8.355770589396</v>
       </c>
       <c r="S12">
-        <v>0.007212243352295134</v>
+        <v>0.004255856047510884</v>
       </c>
       <c r="T12">
-        <v>0.007212243352295134</v>
+        <v>0.004255856047510886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H13">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I13">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J13">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N13">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q13">
-        <v>18.33885550996767</v>
+        <v>17.97049538309067</v>
       </c>
       <c r="R13">
-        <v>165.049699589709</v>
+        <v>161.734458447816</v>
       </c>
       <c r="S13">
-        <v>0.09365684696647415</v>
+        <v>0.08237643263561535</v>
       </c>
       <c r="T13">
-        <v>0.09365684696647415</v>
+        <v>0.08237643263561538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H14">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I14">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J14">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N14">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O14">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P14">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q14">
-        <v>0.1381955594474445</v>
+        <v>0.06760891301433332</v>
       </c>
       <c r="R14">
-        <v>1.243760035027</v>
+        <v>0.6084802171289999</v>
       </c>
       <c r="S14">
-        <v>0.000705767072300708</v>
+        <v>0.0003099180601183045</v>
       </c>
       <c r="T14">
-        <v>0.000705767072300708</v>
+        <v>0.0003099180601183046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H15">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I15">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J15">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.130476</v>
       </c>
       <c r="O15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q15">
-        <v>0.01524065510533334</v>
+        <v>0.020262966292</v>
       </c>
       <c r="R15">
-        <v>0.137165895948</v>
+        <v>0.182366696628</v>
       </c>
       <c r="S15">
-        <v>7.783428481091369E-05</v>
+        <v>9.288507868966746E-05</v>
       </c>
       <c r="T15">
-        <v>7.783428481091369E-05</v>
+        <v>9.28850786896675E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H16">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I16">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J16">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N16">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q16">
-        <v>0.1979123045556667</v>
+        <v>0.392210370632</v>
       </c>
       <c r="R16">
-        <v>1.781210741001</v>
+        <v>3.529893335688</v>
       </c>
       <c r="S16">
-        <v>0.001010741505132508</v>
+        <v>0.001797885394175484</v>
       </c>
       <c r="T16">
-        <v>0.001010741505132508</v>
+        <v>0.001797885394175484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H17">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I17">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J17">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N17">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O17">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P17">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q17">
-        <v>0.1456521066226667</v>
+        <v>0.002363235289777777</v>
       </c>
       <c r="R17">
-        <v>1.310868959604</v>
+        <v>0.021269117608</v>
       </c>
       <c r="S17">
-        <v>0.0007438477855332489</v>
+        <v>1.083302872294034E-05</v>
       </c>
       <c r="T17">
-        <v>0.0007438477855332489</v>
+        <v>1.083302872294034E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H18">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I18">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J18">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.130476</v>
       </c>
       <c r="O18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q18">
-        <v>0.016062987344</v>
+        <v>0.0007082817173333333</v>
       </c>
       <c r="R18">
-        <v>0.144566886096</v>
+        <v>0.006374535456</v>
       </c>
       <c r="S18">
-        <v>8.203394953865752E-05</v>
+        <v>3.246750850833398E-06</v>
       </c>
       <c r="T18">
-        <v>8.203394953865752E-05</v>
+        <v>3.2467508508334E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H19">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I19">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J19">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N19">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q19">
-        <v>0.208590957628</v>
+        <v>0.01370951473066667</v>
       </c>
       <c r="R19">
-        <v>1.877318618652</v>
+        <v>0.123385632576</v>
       </c>
       <c r="S19">
-        <v>0.001065277567977869</v>
+        <v>6.28441727733556E-05</v>
       </c>
       <c r="T19">
-        <v>0.001065277567977869</v>
+        <v>6.284417277335561E-05</v>
       </c>
     </row>
   </sheetData>
